--- a/Work/Training Info.xlsx
+++ b/Work/Training Info.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{037AA948-B982-4E1C-8EC7-3DA6F57DBD82}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{196C37B1-34F6-430A-83A6-3BD2DAB81BAE}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4125" yWindow="-13620" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="45">
   <si>
     <t>What Training</t>
   </si>
@@ -128,6 +128,33 @@
   </si>
   <si>
     <t>W!ck3tt123</t>
+  </si>
+  <si>
+    <t>https://thetoroco.csod.com/client/thetoroco/exmark.aspx</t>
+  </si>
+  <si>
+    <t>https://kohlerengines.coursemill.com/kohlerengines/home.html</t>
+  </si>
+  <si>
+    <t>http://www.scaguniversity.com/lms/</t>
+  </si>
+  <si>
+    <t>https://www.stihlicademy.com/?utm_medium=email&amp;utm_campaign=June%202019&amp;utm_content=June%202019+CID_45bbf0dd44af8daea84bbae3d1258cf6&amp;utm_source=Email%20marketing%20software&amp;utm_term=wwwSTIHLiCademycom</t>
+  </si>
+  <si>
+    <t>https://ttc.elogiclearning.com/#</t>
+  </si>
+  <si>
+    <t>https://www.thepowerportal.com/Login.htm?</t>
+  </si>
+  <si>
+    <t>https://www.in.honda.com/RRAAApps/login/asp/rraalog.asp?url=https%3A%2F%2Fwww.in.honda.com%2F</t>
+  </si>
+  <si>
+    <t>https://kubota-prod.torchlms.com/login/KEA-cust-view.html</t>
+  </si>
+  <si>
+    <t>https://www.eetc.org/</t>
   </si>
 </sst>
 </file>
@@ -197,7 +224,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -214,6 +241,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -498,7 +526,7 @@
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -506,7 +534,7 @@
     <col min="1" max="1" width="22.140625" style="1" customWidth="1"/>
     <col min="2" max="2" width="36.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="16.85546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="29.140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="53.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -533,6 +561,9 @@
       <c r="C2" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="D2" s="6" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
@@ -544,6 +575,9 @@
       <c r="C3" s="1" t="s">
         <v>18</v>
       </c>
+      <c r="D3" s="6" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
@@ -577,6 +611,9 @@
       <c r="C6" s="1" t="s">
         <v>19</v>
       </c>
+      <c r="D6" s="6" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
@@ -588,6 +625,9 @@
       <c r="C7" s="1" t="s">
         <v>22</v>
       </c>
+      <c r="D7" s="6" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
@@ -599,6 +639,9 @@
       <c r="C8" s="1" t="s">
         <v>19</v>
       </c>
+      <c r="D8" s="6" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
@@ -610,6 +653,9 @@
       <c r="C9" s="1" t="s">
         <v>19</v>
       </c>
+      <c r="D9" s="6" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
@@ -621,6 +667,9 @@
       <c r="C10" s="1" t="s">
         <v>24</v>
       </c>
+      <c r="D10" s="6" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
@@ -632,6 +681,9 @@
       <c r="C11" s="1" t="s">
         <v>28</v>
       </c>
+      <c r="D11" s="6" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
@@ -643,6 +695,9 @@
       <c r="C12" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="D12" s="6" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
@@ -694,8 +749,17 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" xr:uid="{3CF2710F-DD75-4C23-B7A6-59DDA002550C}"/>
+    <hyperlink ref="D10" r:id="rId2" xr:uid="{D6B50686-DD5C-42D6-941E-F1F17EB0646E}"/>
+    <hyperlink ref="D9" r:id="rId3" xr:uid="{C68871F3-AC29-4807-B4FA-660206559974}"/>
+    <hyperlink ref="D6" r:id="rId4" xr:uid="{34B95CC6-3E71-43C6-B0E8-9BBE0B7EDBF6}"/>
+    <hyperlink ref="D7" r:id="rId5" xr:uid="{48D6AA86-13C8-4E3C-B99B-8AF822BC0FC0}"/>
+    <hyperlink ref="D8" r:id="rId6" display="https://ttc.elogiclearning.com/" xr:uid="{A31DF982-27A7-4E7D-9463-D97A6088AFA8}"/>
+    <hyperlink ref="D2" r:id="rId7" xr:uid="{C62E34DA-29BB-4F82-8A4F-77F2863703FE}"/>
+    <hyperlink ref="D3" r:id="rId8" xr:uid="{5FBB432B-947F-4DB1-9709-A2E6958DCB96}"/>
+    <hyperlink ref="D11" r:id="rId9" xr:uid="{EAE8365C-0EFC-4B3E-8AA2-02CCE8955CEB}"/>
+    <hyperlink ref="D12" r:id="rId10" xr:uid="{929B27E8-CD81-48F9-8B98-A3EAF4EC5E36}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId2"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId11"/>
 </worksheet>
 </file>